--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-06_beg.xlsx
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   Where is "there"... Are you telling us to--
+    <t xml:space="preserve">[name="Amiya"]   Where is 'there'... Are you telling us to--
 </t>
   </si>
   <si>
